--- a/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2010.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2010.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>46.1469749575</v>
+        <v>461469.749575</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1579.5367215046</v>
+        <v>15795367.215046</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>35.6568797504</v>
+        <v>356568.797504</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>43.0845026285</v>
+        <v>430845.026285</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>235.8948631568</v>
+        <v>2358948.631568</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>4.1361647509</v>
+        <v>41361.647509</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>7.7190755</v>
+        <v>77190.755</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>3.2650955537</v>
+        <v>32650.955537</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>19.2930910346</v>
+        <v>192930.910346</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>27.2002166095</v>
+        <v>272002.166095</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>52.9122917234</v>
+        <v>529122.917234</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>90.7218408633</v>
+        <v>907218.408633</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>40.0939847166</v>
+        <v>400939.847166</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>18.8089783057</v>
+        <v>188089.783057</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>249.3405686826</v>
+        <v>2493405.686826</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>23.0479087965</v>
+        <v>230479.087965</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>130.6811465306</v>
+        <v>1306811.465306</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>27.14644417</v>
+        <v>271464.4417</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>0.99719827</v>
+        <v>9971.9827</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>11.405079249</v>
+        <v>114050.79249</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>3906.5753206057</v>
+        <v>39065753.206057</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>100.6768975167</v>
+        <v>1006768.975167</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>18.49105092</v>
+        <v>184910.5092</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>102.4140216155</v>
+        <v>1024140.216155</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>431.4373767811</v>
+        <v>4314373.767811</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>54.7393131218</v>
+        <v>547393.131218</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>119.3390031931</v>
+        <v>1193390.031931</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1058,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>4.5187697688</v>
+        <v>45187.697688</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1078,7 +1078,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>10.8826777051</v>
+        <v>108826.777051</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1098,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>60.3477836222</v>
+        <v>603477.836222</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1118,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>79.4409804873</v>
+        <v>794409.804873</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
